--- a/Flyback_converter_AHS/Bom_8624738.xlsx
+++ b/Flyback_converter_AHS/Bom_8624738.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/87011da2d366edf5/Belgeler/EE464_term_project_Social_Isiolation/Flyback_converter_AHS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59FB6BE0-E5E6-4BD6-ACF5-6555DE13CFB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C9C4094-EB22-40BC-8177-570D1EF6F5CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="73">
   <si>
     <t>Manufacturer</t>
   </si>
@@ -210,12 +210,6 @@
     <t>1SMB5953B-13DI-ND</t>
   </si>
   <si>
-    <t>846-RFN1L7SDDTE25CT-ND</t>
-  </si>
-  <si>
-    <t>$263.78</t>
-  </si>
-  <si>
     <t>Taiwan Semiconductor Corporation</t>
   </si>
   <si>
@@ -238,16 +232,31 @@
   </si>
   <si>
     <t>Price</t>
+  </si>
+  <si>
+    <t>ON Semiconductor</t>
+  </si>
+  <si>
+    <t>SURA8260T3GOSCT-ND</t>
+  </si>
+  <si>
+    <t>$160.27</t>
+  </si>
+  <si>
+    <t>Remington Industries</t>
+  </si>
+  <si>
+    <t>2328-15SNSP.125-ND</t>
+  </si>
+  <si>
+    <t>$2370.00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;₺&quot;#,##0.00"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -256,6 +265,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
     </font>
   </fonts>
   <fills count="2">
@@ -278,11 +293,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,7 +616,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -629,7 +645,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -645,7 +661,7 @@
       <c r="D2">
         <v>3.3450000000000002</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G2">
@@ -666,11 +682,11 @@
       <c r="D3">
         <v>1.5764</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G24" si="0">D3*C3</f>
+        <f t="shared" ref="G3:G25" si="0">D3*C3</f>
         <v>1576.4</v>
       </c>
     </row>
@@ -687,7 +703,7 @@
       <c r="D4">
         <v>0.39779999999999999</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G4">
@@ -708,7 +724,7 @@
       <c r="D5">
         <v>9.4390000000000002E-2</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G5">
@@ -729,7 +745,7 @@
       <c r="D6">
         <v>0.68749000000000005</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G6">
@@ -750,7 +766,7 @@
       <c r="D7">
         <v>1.9120000000000002E-2</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G7">
@@ -771,7 +787,7 @@
       <c r="D8">
         <v>1.524E-2</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G8">
@@ -792,8 +808,8 @@
       <c r="D9">
         <v>0.18926999999999999</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>63</v>
+      <c r="E9" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
@@ -813,7 +829,7 @@
       <c r="D10">
         <v>7.5900000000000004E-3</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G10">
@@ -834,7 +850,7 @@
       <c r="D11">
         <v>4.3600000000000002E-3</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G11">
@@ -855,8 +871,8 @@
       <c r="D12">
         <v>6.9499999999999996E-3</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>64</v>
+      <c r="E12" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
@@ -876,7 +892,7 @@
       <c r="D13">
         <v>0.22295999999999999</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G13">
@@ -897,7 +913,7 @@
       <c r="D14">
         <v>0.22</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G14">
@@ -918,7 +934,7 @@
       <c r="D15">
         <v>0.21173</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G15">
@@ -939,7 +955,7 @@
       <c r="D16">
         <v>8.6220000000000005E-2</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G16">
@@ -960,7 +976,7 @@
       <c r="D17">
         <v>7.2450000000000001E-2</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G17">
@@ -981,7 +997,7 @@
       <c r="D18">
         <v>1.5480000000000001E-2</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G18">
@@ -1002,7 +1018,7 @@
       <c r="D19">
         <v>2.8750000000000001E-2</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>52</v>
       </c>
       <c r="G19">
@@ -1023,7 +1039,7 @@
       <c r="D20">
         <v>3.3050000000000003E-2</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G20">
@@ -1044,8 +1060,8 @@
       <c r="D21">
         <v>0.15068000000000001</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>65</v>
+      <c r="E21" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="G21">
         <f t="shared" si="0"/>
@@ -1065,8 +1081,8 @@
       <c r="D22">
         <v>0.13613</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>66</v>
+      <c r="E22" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="G22">
         <f t="shared" si="0"/>
@@ -1074,32 +1090,32 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23">
-        <v>1000</v>
-      </c>
-      <c r="D23">
-        <v>0.26378000000000001</v>
+      <c r="A23" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.16027</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G23">
         <f t="shared" si="0"/>
-        <v>263.78000000000003</v>
+        <v>160.26999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C24">
         <v>1000</v>
@@ -1107,8 +1123,8 @@
       <c r="D24">
         <v>0.62760000000000005</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>67</v>
+      <c r="E24" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="G24">
         <f t="shared" si="0"/>
@@ -1116,15 +1132,34 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E25" s="2"/>
+      <c r="A25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25">
+        <v>250</v>
+      </c>
+      <c r="D25">
+        <v>9.48</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="0"/>
+        <v>2370</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G26">
-        <f>SUM(G2:G24)</f>
-        <v>9796.5399999999972</v>
+        <f>SUM(G2:G25)</f>
+        <v>12063.029999999997</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Flyback_converter_AHS/Bom_8624738.xlsx
+++ b/Flyback_converter_AHS/Bom_8624738.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/87011da2d366edf5/Belgeler/EE464_term_project_Social_Isiolation/Flyback_converter_AHS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\90554\Documents\EE464_term_project_Social_Isolation\Flyback_converter_AHS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C9C4094-EB22-40BC-8177-570D1EF6F5CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EB029C-FB7E-480F-A689-4330D83B8EF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
   <si>
     <t>Manufacturer</t>
   </si>
@@ -42,75 +41,48 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>Unit Price</t>
-  </si>
-  <si>
-    <t>Extended Price</t>
-  </si>
-  <si>
     <t>Analog Devices Inc.</t>
   </si>
   <si>
     <t>LT8316IFE#PBF-ND</t>
   </si>
   <si>
-    <t>$3,345.00</t>
-  </si>
-  <si>
     <t>Infineon Technologies</t>
   </si>
   <si>
     <t>IPD65R190C7ATMA1CT-ND</t>
   </si>
   <si>
-    <t>$1,576.40</t>
-  </si>
-  <si>
     <t>EPCOS - TDK Electronics</t>
   </si>
   <si>
     <t>495-5450-ND</t>
   </si>
   <si>
-    <t>$795.60</t>
-  </si>
-  <si>
     <t>KEMET</t>
   </si>
   <si>
     <t>399-EDH107M016A9GAATR-ND</t>
   </si>
   <si>
-    <t>$283.17</t>
-  </si>
-  <si>
     <t>Venkel</t>
   </si>
   <si>
     <t>2679-C1206X5R160-476MNETR-ND</t>
   </si>
   <si>
-    <t>$1,374.98</t>
-  </si>
-  <si>
     <t>Samsung Electro-Mechanics</t>
   </si>
   <si>
     <t>1276-1096-2-ND</t>
   </si>
   <si>
-    <t>$76.48</t>
-  </si>
-  <si>
     <t>Taiyo Yuden</t>
   </si>
   <si>
     <t>587-5514-1-ND</t>
   </si>
   <si>
-    <t>$60.94</t>
-  </si>
-  <si>
     <t>2679-LCR2512-R028FTTR-ND</t>
   </si>
   <si>
@@ -120,15 +92,9 @@
     <t>311-69.8KCRCT-ND</t>
   </si>
   <si>
-    <t>$7.59</t>
-  </si>
-  <si>
     <t>311-20.0KHRCT-ND</t>
   </si>
   <si>
-    <t>$4.36</t>
-  </si>
-  <si>
     <t>1276-3431-1-ND</t>
   </si>
   <si>
@@ -138,66 +104,42 @@
     <t>BC4966CT-ND</t>
   </si>
   <si>
-    <t>$222.96</t>
-  </si>
-  <si>
     <t>Vishay Dale Thin Film</t>
   </si>
   <si>
     <t>764-1550-2-ND</t>
   </si>
   <si>
-    <t>$220.00</t>
-  </si>
-  <si>
     <t>TE Connectivity Passive Product</t>
   </si>
   <si>
     <t>A121294CT-ND</t>
   </si>
   <si>
-    <t>$211.73</t>
-  </si>
-  <si>
     <t>587-4896-1-ND</t>
   </si>
   <si>
-    <t>$86.22</t>
-  </si>
-  <si>
     <t>TDK Corporation</t>
   </si>
   <si>
     <t>445-7479-1-ND</t>
   </si>
   <si>
-    <t>$72.45</t>
-  </si>
-  <si>
     <t>Würth Elektronik</t>
   </si>
   <si>
     <t>732-7532-1-ND</t>
   </si>
   <si>
-    <t>$15.48</t>
-  </si>
-  <si>
     <t>AVX Corporation</t>
   </si>
   <si>
     <t>478-1282-1-ND</t>
   </si>
   <si>
-    <t>$28.75</t>
-  </si>
-  <si>
     <t>311-3383-1-ND</t>
   </si>
   <si>
-    <t>$33.05</t>
-  </si>
-  <si>
     <t>Rohm Semiconductor</t>
   </si>
   <si>
@@ -216,47 +158,29 @@
     <t>TSPB20U80SS2G-ND</t>
   </si>
   <si>
-    <t>$189.27</t>
-  </si>
-  <si>
-    <t>$13.9</t>
-  </si>
-  <si>
-    <t>$150.68</t>
-  </si>
-  <si>
-    <t>$136.13</t>
-  </si>
-  <si>
-    <t>$627.6</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
     <t>ON Semiconductor</t>
   </si>
   <si>
     <t>SURA8260T3GOSCT-ND</t>
   </si>
   <si>
-    <t>$160.27</t>
-  </si>
-  <si>
     <t>Remington Industries</t>
   </si>
   <si>
     <t>2328-15SNSP.125-ND</t>
   </si>
   <si>
-    <t>$2370.00</t>
+    <t xml:space="preserve">Unit Price($) </t>
+  </si>
+  <si>
+    <t>Price($)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -265,12 +189,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
     </font>
   </fonts>
   <fills count="2">
@@ -281,7 +199,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -289,16 +207,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -613,488 +551,422 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>1000</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="3">
         <v>3.3450000000000002</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2">
+      <c r="E2" s="3">
         <f>D2*C2</f>
         <v>3345</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1.5764</v>
+      </c>
+      <c r="E3" s="3">
+        <f>D3*C3</f>
+        <v>1576.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.39779999999999999</v>
+      </c>
+      <c r="E4" s="3">
+        <f>D4*C4</f>
+        <v>795.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3">
-        <v>1000</v>
-      </c>
-      <c r="D3">
-        <v>1.5764</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G25" si="0">D3*C3</f>
-        <v>1576.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="C5" s="3">
+        <v>3000</v>
+      </c>
+      <c r="D5" s="3">
+        <v>9.4390000000000002E-2</v>
+      </c>
+      <c r="E5" s="3">
+        <f>D5*C5</f>
+        <v>283.17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4">
+      <c r="C6" s="3">
         <v>2000</v>
       </c>
-      <c r="D4">
-        <v>0.39779999999999999</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="D6" s="3">
+        <v>0.68749000000000005</v>
+      </c>
+      <c r="E6" s="3">
+        <f>D6*C6</f>
+        <v>1374.98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>795.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C7" s="3">
+        <v>4000</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1.9120000000000002E-2</v>
+      </c>
+      <c r="E7" s="3">
+        <f>D7*C7</f>
+        <v>76.48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5">
-        <v>3000</v>
-      </c>
-      <c r="D5">
-        <v>9.4390000000000002E-2</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>283.17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="C8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1.524E-2</v>
+      </c>
+      <c r="E8" s="3">
+        <f>D8*C8</f>
+        <v>60.96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.18926999999999999</v>
+      </c>
+      <c r="E9" s="3">
+        <f>D9*C9</f>
+        <v>189.26999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C6">
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D10" s="3">
+        <v>7.5900000000000004E-3</v>
+      </c>
+      <c r="E10" s="3">
+        <f>D10*C10</f>
+        <v>7.5900000000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D11" s="3">
+        <v>4.3600000000000002E-3</v>
+      </c>
+      <c r="E11" s="3">
+        <f>D11*C11</f>
+        <v>4.3600000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="3">
         <v>2000</v>
       </c>
-      <c r="D6">
-        <v>0.68749000000000005</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>1374.98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7">
-        <v>4000</v>
-      </c>
-      <c r="D7">
-        <v>1.9120000000000002E-2</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="D12" s="3">
+        <v>6.9499999999999996E-3</v>
+      </c>
+      <c r="E12" s="3">
+        <f>D12*C12</f>
+        <v>13.899999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>76.48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C13" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.22295999999999999</v>
+      </c>
+      <c r="E13" s="3">
+        <f>D13*C13</f>
+        <v>222.95999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C8">
-        <v>4000</v>
-      </c>
-      <c r="D8">
-        <v>1.524E-2</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>60.96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="E14" s="3">
+        <f>D14*C14</f>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C9">
-        <v>1000</v>
-      </c>
-      <c r="D9">
-        <v>0.18926999999999999</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>189.26999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.21173</v>
+      </c>
+      <c r="E15" s="3">
+        <f>D15*C15</f>
+        <v>211.73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C10">
-        <v>1000</v>
-      </c>
-      <c r="D10">
-        <v>7.5900000000000004E-3</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="C16" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D16" s="3">
+        <v>8.6220000000000005E-2</v>
+      </c>
+      <c r="E16" s="3">
+        <f>D16*C16</f>
+        <v>86.22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>7.5900000000000007</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="B17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C11">
-        <v>1000</v>
-      </c>
-      <c r="D11">
-        <v>4.3600000000000002E-3</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="C17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D17" s="3">
+        <v>7.2450000000000001E-2</v>
+      </c>
+      <c r="E17" s="3">
+        <f>D17*C17</f>
+        <v>72.45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>4.3600000000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C12">
-        <v>2000</v>
-      </c>
-      <c r="D12">
-        <v>6.9499999999999996E-3</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>13.899999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="C18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1.5480000000000001E-2</v>
+      </c>
+      <c r="E18" s="3">
+        <f>D18*C18</f>
+        <v>15.48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C13">
-        <v>1000</v>
-      </c>
-      <c r="D13">
-        <v>0.22295999999999999</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="C19" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2.8750000000000001E-2</v>
+      </c>
+      <c r="E19" s="3">
+        <f>D19*C19</f>
+        <v>28.75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G13">
-        <f t="shared" si="0"/>
-        <v>222.95999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="C20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D20" s="3">
+        <v>3.3050000000000003E-2</v>
+      </c>
+      <c r="E20" s="3">
+        <f>D20*C20</f>
+        <v>33.050000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B21" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C14">
-        <v>1000</v>
-      </c>
-      <c r="D14">
-        <v>0.22</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="C21" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.15068000000000001</v>
+      </c>
+      <c r="E21" s="3">
+        <f>D21*C21</f>
+        <v>150.68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G14">
-        <f t="shared" si="0"/>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B22" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15">
-        <v>1000</v>
-      </c>
-      <c r="D15">
-        <v>0.21173</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>211.73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.13613</v>
+      </c>
+      <c r="E22" s="3">
+        <f>D22*C22</f>
+        <v>136.13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C16">
-        <v>1000</v>
-      </c>
-      <c r="D16">
-        <v>8.6220000000000005E-2</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="0"/>
-        <v>86.22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17">
-        <v>1000</v>
-      </c>
-      <c r="D17">
-        <v>7.2450000000000001E-2</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="0"/>
-        <v>72.45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18">
-        <v>1000</v>
-      </c>
-      <c r="D18">
-        <v>1.5480000000000001E-2</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="0"/>
-        <v>15.48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19">
-        <v>1000</v>
-      </c>
-      <c r="D19">
-        <v>2.8750000000000001E-2</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="0"/>
-        <v>28.75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20">
-        <v>1000</v>
-      </c>
-      <c r="D20">
-        <v>3.3050000000000003E-2</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="0"/>
-        <v>33.050000000000004</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21">
-        <v>1000</v>
-      </c>
-      <c r="D21">
-        <v>0.15068000000000001</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="0"/>
-        <v>150.68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22">
-        <v>1000</v>
-      </c>
-      <c r="D22">
-        <v>0.13613</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="0"/>
-        <v>136.13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="C23" s="3">
         <v>1000</v>
@@ -1102,59 +974,54 @@
       <c r="D23" s="3">
         <v>0.16027</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="0"/>
+      <c r="E23" s="3">
+        <f>D23*C23</f>
         <v>160.26999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24">
-        <v>1000</v>
-      </c>
-      <c r="D24">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D24" s="3">
         <v>0.62760000000000005</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="0"/>
+      <c r="E24" s="3">
+        <f>D24*C24</f>
         <v>627.6</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B25" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="3">
         <v>250</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="3">
         <v>9.48</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G25" s="3">
-        <f t="shared" si="0"/>
+      <c r="E25" s="3">
+        <f>D25*C25</f>
         <v>2370</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G26">
-        <f>SUM(G2:G25)</f>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="3">
+        <f>SUM(E2:E25)</f>
         <v>12063.029999999997</v>
       </c>
     </row>
